--- a/plots/basic_stats/two_var_stats/allmus_governance_simpl_vs_governance-PC.xlsx
+++ b/plots/basic_stats/two_var_stats/allmus_governance_simpl_vs_governance-PC.xlsx
@@ -365,67 +365,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>/Government/Cadw</t>
+          <t>Government-Cadw</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>/Government/Local Authority</t>
+          <t>Government-Local_Authority</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>/Government/National</t>
+          <t>Government-National</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>/Government/Other</t>
+          <t>Government-Other</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/English Heritage</t>
+          <t>Independent-English_Heritage</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/Historic Environment Scotland</t>
+          <t>Independent-Historic_Environment_Scotland</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/National Trust</t>
+          <t>Independent-National_Trust</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/National Trust for Scotland</t>
+          <t>Independent-National_Trust_for_Scotland</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/Not for profit</t>
+          <t>Independent-Not_for_profit</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/Private</t>
+          <t>Independent-Private</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/Unknown</t>
+          <t>Independent-Unknown</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>/University</t>
+          <t>University</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>/Unknown</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -441,16 +441,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.075</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="C2">
-        <v>22.632</v>
+        <v>21.802</v>
       </c>
       <c r="D2">
-        <v>1.869</v>
+        <v>1.939</v>
       </c>
       <c r="E2">
-        <v>0.15</v>
+        <v>0.236</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>24.726</v>
+        <v>24.048</v>
       </c>
     </row>
     <row r="3">
@@ -502,25 +502,25 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.296</v>
+        <v>1.253</v>
       </c>
       <c r="G3">
-        <v>0.449</v>
+        <v>0.497</v>
       </c>
       <c r="H3">
-        <v>4.611</v>
+        <v>4.375</v>
       </c>
       <c r="I3">
-        <v>0.648</v>
+        <v>0.638</v>
       </c>
       <c r="J3">
-        <v>40.503</v>
+        <v>41.003</v>
       </c>
       <c r="K3">
-        <v>16.825</v>
+        <v>17.758</v>
       </c>
       <c r="L3">
-        <v>5.658</v>
+        <v>5.226</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>69.99</v>
+        <v>70.75</v>
       </c>
     </row>
     <row r="4">
@@ -572,13 +572,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.642</v>
+        <v>2.601</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.642</v>
+        <v>2.601</v>
       </c>
     </row>
     <row r="5">
@@ -624,10 +624,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.642</v>
+        <v>2.601</v>
       </c>
       <c r="O5">
-        <v>2.642</v>
+        <v>2.601</v>
       </c>
     </row>
     <row r="6">
@@ -637,43 +637,43 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.075</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="C6">
-        <v>22.632</v>
+        <v>21.802</v>
       </c>
       <c r="D6">
-        <v>1.869</v>
+        <v>1.939</v>
       </c>
       <c r="E6">
-        <v>0.15</v>
+        <v>0.236</v>
       </c>
       <c r="F6">
-        <v>1.296</v>
+        <v>1.253</v>
       </c>
       <c r="G6">
-        <v>0.449</v>
+        <v>0.497</v>
       </c>
       <c r="H6">
-        <v>4.611</v>
+        <v>4.375</v>
       </c>
       <c r="I6">
-        <v>0.648</v>
+        <v>0.638</v>
       </c>
       <c r="J6">
-        <v>40.503</v>
+        <v>41.003</v>
       </c>
       <c r="K6">
-        <v>16.825</v>
+        <v>17.758</v>
       </c>
       <c r="L6">
-        <v>5.658</v>
+        <v>5.226</v>
       </c>
       <c r="M6">
-        <v>2.642</v>
+        <v>2.601</v>
       </c>
       <c r="N6">
-        <v>2.642</v>
+        <v>2.601</v>
       </c>
       <c r="O6">
         <v>100</v>
